--- a/Data/Discussion/Discussion.xlsx
+++ b/Data/Discussion/Discussion.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="21288" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -63,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -674,7 +687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,6 +702,12 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1001,10 +1020,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1070,31 +1089,31 @@
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>51.7256059270155</v>
+        <v>49.84</v>
       </c>
       <c r="C3" s="3">
-        <v>68.1831964944537</v>
+        <v>29.12</v>
       </c>
       <c r="D3" s="4">
-        <v>6.38783738236677</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4">
-        <v>132.849673475717</v>
+        <v>84.87</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="4">
-        <v>32.1198418456308</v>
+        <v>25.1423162159166</v>
       </c>
       <c r="I3" s="4">
-        <v>26.6734383778931</v>
+        <v>14.6706532930072</v>
       </c>
       <c r="J3" s="4">
-        <v>3.35778755741191</v>
+        <v>2.07757706391183</v>
       </c>
       <c r="K3" s="4">
-        <v>71.7173647958951</v>
+        <v>44.2406077133981</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1102,31 +1121,31 @@
         <v>8</v>
       </c>
       <c r="B4" s="4">
-        <v>80.7518558339638</v>
+        <v>75.89</v>
       </c>
       <c r="C4" s="4">
-        <v>84.3276029445907</v>
+        <v>48.58</v>
       </c>
       <c r="D4" s="4">
-        <v>8.20328613736411</v>
+        <v>6.03</v>
       </c>
       <c r="E4" s="4">
-        <v>179.631048831072</v>
+        <v>134.87</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="4">
-        <v>49.2816191223117</v>
+        <v>28.4087352501718</v>
       </c>
       <c r="I4" s="4">
-        <v>26.3239684886676</v>
+        <v>14.6281087398529</v>
       </c>
       <c r="J4" s="4">
-        <v>4.26592418722139</v>
+        <v>2.15130649114909</v>
       </c>
       <c r="K4" s="4">
-        <v>92.0228736461279</v>
+        <v>46.3302567632574</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1134,31 +1153,31 @@
         <v>9</v>
       </c>
       <c r="B5" s="4">
-        <v>56.2638585090636</v>
+        <v>62.09</v>
       </c>
       <c r="C5" s="4">
-        <v>94.9656833698874</v>
-      </c>
-      <c r="D5" s="4">
-        <v>8.10379102606521</v>
+        <v>36.01</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5.09</v>
       </c>
       <c r="E5" s="4">
-        <v>165.347051777337</v>
+        <v>106.34</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="4">
-        <v>43.2896891014739</v>
+        <v>24.3100036696383</v>
       </c>
       <c r="I5" s="4">
-        <v>27.442924331376</v>
+        <v>16.0887973183079</v>
       </c>
       <c r="J5" s="4">
-        <v>3.83895883563311</v>
+        <v>2.19990020049245</v>
       </c>
       <c r="K5" s="4">
-        <v>82.9530234141299</v>
+        <v>48.0123472088261</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1166,31 +1185,31 @@
         <v>10</v>
       </c>
       <c r="B6" s="4">
-        <v>95.9178811883923</v>
+        <v>71.08</v>
       </c>
       <c r="C6" s="4">
-        <v>170.680617237091</v>
+        <v>44.06</v>
       </c>
       <c r="D6" s="4">
-        <v>15.3222621631622</v>
+        <v>10.85</v>
       </c>
       <c r="E6" s="4">
-        <v>288.046669294834</v>
+        <v>125.83</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="4">
-        <v>49.869065073842</v>
+        <v>23.1474123299121</v>
       </c>
       <c r="I6" s="4">
-        <v>30.6960655826182</v>
+        <v>14.7840788960456</v>
       </c>
       <c r="J6" s="4">
-        <v>3.53615416456674</v>
+        <v>2.45369100570678</v>
       </c>
       <c r="K6" s="4">
-        <v>105.002535680212</v>
+        <v>41.187714844942</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1198,31 +1217,31 @@
         <v>11</v>
       </c>
       <c r="B7" s="4">
-        <v>59.0098632578946</v>
+        <v>46.22</v>
       </c>
       <c r="C7" s="4">
-        <v>61.8412641564193</v>
+        <v>25.03</v>
       </c>
       <c r="D7" s="4">
-        <v>4.85633963954691</v>
+        <v>2.6</v>
       </c>
       <c r="E7" s="4">
-        <v>132.8953870024</v>
+        <v>88.64</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="4">
-        <v>47.8905388694289</v>
+        <v>30.1021106772952</v>
       </c>
       <c r="I7" s="4">
-        <v>34.6348349149613</v>
+        <v>17.3166213035583</v>
       </c>
       <c r="J7" s="4">
-        <v>3.42081071068503</v>
+        <v>2.15358275837368</v>
       </c>
       <c r="K7" s="4">
-        <v>96.5865915891081</v>
+        <v>62.2529649999406</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1230,31 +1249,31 @@
         <v>12</v>
       </c>
       <c r="B8" s="4">
-        <v>58.3130467621055</v>
+        <v>44.16</v>
       </c>
       <c r="C8" s="4">
-        <v>85.9056445199088</v>
+        <v>27.87</v>
       </c>
       <c r="D8" s="4">
-        <v>7.89995439245892</v>
+        <v>4.09</v>
       </c>
       <c r="E8" s="4">
-        <v>157.829161660735</v>
+        <v>83.57</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="4">
-        <v>46.2056640077239</v>
+        <v>35.1970914244651</v>
       </c>
       <c r="I8" s="4">
-        <v>34.4414669633606</v>
+        <v>19.9011898040771</v>
       </c>
       <c r="J8" s="4">
-        <v>4.64170488597936</v>
+        <v>3.91140896081924</v>
       </c>
       <c r="K8" s="4">
-        <v>93.8498052347886</v>
+        <v>65.9757424712181</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1263,39 +1282,70 @@
       </c>
       <c r="B9" s="4">
         <f>AVERAGE(B3:B8)</f>
-        <v>66.9970185797392</v>
+        <v>58.2133333333333</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" ref="C9:K9" si="0">AVERAGE(C3:C8)</f>
-        <v>94.3173347870585</v>
+        <f>AVERAGE(C3:C8)</f>
+        <v>35.1116666666667</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>8.46224512349402</v>
+        <f>AVERAGE(D3:D8)</f>
+        <v>5.61</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>176.099832007016</v>
+        <f>AVERAGE(E3:E8)</f>
+        <v>104.02</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="0"/>
-        <v>44.7760696700685</v>
+        <v>27.7179449278999</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="0"/>
-        <v>30.0354497764795</v>
+        <v>16.2315748924748</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>3.84355672358292</v>
+        <v>2.49124441340884</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="0"/>
-        <v>90.3553657267103</v>
-      </c>
+        <v>51.3332723335971</v>
+      </c>
+    </row>
+    <row r="12" spans="10:11">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="10:11">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="10:11">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="10:11">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="10:11">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="11:11">
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="10:11">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="10:11">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="10:11">
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Data/Discussion/Discussion.xlsx
+++ b/Data/Discussion/Discussion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21288" windowHeight="13140"/>
+    <workbookView windowWidth="22871" windowHeight="9047"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Library</t>
   </si>
@@ -46,10 +46,13 @@
     <t>MLMTyper</t>
   </si>
   <si>
+    <t>Context Augmentation</t>
+  </si>
+  <si>
     <t>KB Reduction</t>
   </si>
   <si>
-    <t>iJTyper</t>
+    <t>iTyper</t>
   </si>
   <si>
     <t>Android</t>
@@ -687,27 +690,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1020,23 +1032,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="11.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="19.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="19.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="16.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="18.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="17.2222222222222" customWidth="1"/>
-    <col min="10" max="10" width="17.3333333333333" customWidth="1"/>
+    <col min="4" max="5" width="16.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="18.7777777777778" customWidth="1"/>
+    <col min="10" max="10" width="17.2222222222222" customWidth="1"/>
+    <col min="11" max="12" width="17.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1046,17 +1060,20 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" ht="28.8" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1064,295 +1081,360 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
-        <v>49.84</v>
-      </c>
-      <c r="C3" s="3">
-        <v>29.12</v>
-      </c>
-      <c r="D3" s="4">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4">
-        <v>84.87</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4">
-        <v>25.1423162159166</v>
-      </c>
-      <c r="I3" s="4">
-        <v>14.6706532930072</v>
-      </c>
-      <c r="J3" s="4">
-        <v>2.07757706391183</v>
-      </c>
-      <c r="K3" s="4">
-        <v>44.2406077133981</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
-        <v>75.89</v>
-      </c>
-      <c r="C4" s="4">
-        <v>48.58</v>
-      </c>
-      <c r="D4" s="4">
-        <v>6.03</v>
-      </c>
-      <c r="E4" s="4">
-        <v>134.87</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="B3" s="5">
+        <v>46.8185854037602</v>
+      </c>
+      <c r="C3" s="5">
+        <v>29.3572462733586</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.000160409609476692</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5.03373425165812</v>
+      </c>
+      <c r="F3" s="5">
+        <v>92.5811198186874</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4">
-        <v>28.4087352501718</v>
-      </c>
-      <c r="I4" s="4">
-        <v>14.6281087398529</v>
-      </c>
-      <c r="J4" s="4">
-        <v>2.15130649114909</v>
-      </c>
-      <c r="K4" s="4">
-        <v>46.3302567632574</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="I3" s="7">
+        <v>24.66</v>
+      </c>
+      <c r="J3" s="7">
+        <v>15.66</v>
+      </c>
+      <c r="K3" s="6">
+        <v>9.21e-5</v>
+      </c>
+      <c r="L3" s="7">
+        <v>2.47</v>
+      </c>
+      <c r="M3" s="7">
+        <v>46.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4">
-        <v>62.09</v>
-      </c>
-      <c r="C5" s="4">
-        <v>36.01</v>
-      </c>
-      <c r="D5" s="5">
-        <v>5.09</v>
-      </c>
-      <c r="E5" s="4">
-        <v>106.34</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="B4" s="5">
+        <v>54.5380590918923</v>
+      </c>
+      <c r="C4" s="5">
+        <v>38.6422565810534</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.000155494326636876</v>
+      </c>
+      <c r="E4" s="5">
+        <v>6.54076066309092</v>
+      </c>
+      <c r="F4" s="5">
+        <v>106.964872168845</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4">
-        <v>24.3100036696383</v>
-      </c>
-      <c r="I5" s="4">
-        <v>16.0887973183079</v>
-      </c>
-      <c r="J5" s="4">
-        <v>2.19990020049245</v>
-      </c>
-      <c r="K5" s="4">
-        <v>48.0123472088261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
+      <c r="I4" s="7">
+        <v>24.13</v>
+      </c>
+      <c r="J4" s="7">
+        <v>15.48</v>
+      </c>
+      <c r="K4" s="6">
+        <v>7.89e-5</v>
+      </c>
+      <c r="L4" s="7">
+        <v>3.38</v>
+      </c>
+      <c r="M4" s="7">
+        <v>47.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4">
-        <v>71.08</v>
-      </c>
-      <c r="C6" s="4">
-        <v>44.06</v>
-      </c>
-      <c r="D6" s="4">
-        <v>10.85</v>
-      </c>
-      <c r="E6" s="4">
-        <v>125.83</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="B5" s="5">
+        <v>47.0567957809548</v>
+      </c>
+      <c r="C5" s="5">
+        <v>32.8580015484803</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.000245206496294765</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5.90540688957264</v>
+      </c>
+      <c r="F5" s="5">
+        <v>92.9030704607371</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="4">
-        <v>23.1474123299121</v>
-      </c>
-      <c r="I6" s="4">
-        <v>14.7840788960456</v>
-      </c>
-      <c r="J6" s="4">
-        <v>2.45369100570678</v>
-      </c>
-      <c r="K6" s="4">
-        <v>41.187714844942</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
+      <c r="I5" s="7">
+        <v>25.17</v>
+      </c>
+      <c r="J5" s="7">
+        <v>16.38</v>
+      </c>
+      <c r="K5" s="6">
+        <v>8.86e-5</v>
+      </c>
+      <c r="L5" s="7">
+        <v>3.36</v>
+      </c>
+      <c r="M5" s="7">
+        <v>51.47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4">
-        <v>46.22</v>
-      </c>
-      <c r="C7" s="4">
-        <v>25.03</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="E7" s="4">
-        <v>88.64</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="B6" s="5">
+        <v>58.4156819033244</v>
+      </c>
+      <c r="C6" s="5">
+        <v>43.6311680513715</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.000160656278095506</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10.9323881732092</v>
+      </c>
+      <c r="F6" s="5">
+        <v>126.343452105446</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="4">
-        <v>30.1021106772952</v>
-      </c>
-      <c r="I7" s="4">
-        <v>17.3166213035583</v>
-      </c>
-      <c r="J7" s="4">
-        <v>2.15358275837368</v>
-      </c>
-      <c r="K7" s="4">
-        <v>62.2529649999406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2" t="s">
+      <c r="I6" s="7">
+        <v>24.04</v>
+      </c>
+      <c r="J6" s="7">
+        <v>16.13</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.000103</v>
+      </c>
+      <c r="L6" s="7">
+        <v>2.68</v>
+      </c>
+      <c r="M6" s="7">
+        <v>49.51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4">
-        <v>44.16</v>
-      </c>
-      <c r="C8" s="4">
-        <v>27.87</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4.09</v>
-      </c>
-      <c r="E8" s="4">
-        <v>83.57</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="B7" s="5">
+        <v>31.2675930496786</v>
+      </c>
+      <c r="C7" s="5">
+        <v>21.2165465517108</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.000125220032776266</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.71782567387535</v>
+      </c>
+      <c r="F7" s="5">
+        <v>60.1422884788642</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4">
-        <v>35.1970914244651</v>
-      </c>
-      <c r="I8" s="4">
-        <v>19.9011898040771</v>
-      </c>
-      <c r="J8" s="4">
-        <v>3.91140896081924</v>
-      </c>
-      <c r="K8" s="4">
-        <v>65.9757424712181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="I7" s="7">
+        <v>27.55</v>
+      </c>
+      <c r="J7" s="7">
+        <v>17.99</v>
+      </c>
+      <c r="K7" s="6">
+        <v>6.2e-5</v>
+      </c>
+      <c r="L7" s="7">
+        <v>2.44</v>
+      </c>
+      <c r="M7" s="7">
+        <v>53.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5">
+        <v>39.3316386692107</v>
+      </c>
+      <c r="C8" s="5">
+        <v>28.047322082141</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.00027369317554288</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5.32341980744922</v>
+      </c>
+      <c r="F8" s="5">
+        <v>81.7768812558007</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7">
+        <v>24.24</v>
+      </c>
+      <c r="J8" s="7">
+        <v>19.68</v>
+      </c>
+      <c r="K8" s="6">
+        <v>9.74e-5</v>
+      </c>
+      <c r="L8" s="7">
+        <v>4.11</v>
+      </c>
+      <c r="M8" s="7">
+        <v>55.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4">
-        <f>AVERAGE(B3:B8)</f>
-        <v>58.2133333333333</v>
-      </c>
-      <c r="C9" s="4">
-        <f>AVERAGE(C3:C8)</f>
-        <v>35.1116666666667</v>
-      </c>
-      <c r="D9" s="4">
-        <f>AVERAGE(D3:D8)</f>
-        <v>5.61</v>
-      </c>
-      <c r="E9" s="4">
-        <f>AVERAGE(E3:E8)</f>
-        <v>104.02</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="4">
-        <v>27.7179449278999</v>
-      </c>
-      <c r="I9" s="4">
-        <v>16.2315748924748</v>
-      </c>
-      <c r="J9" s="4">
-        <v>2.49124441340884</v>
-      </c>
-      <c r="K9" s="4">
-        <v>51.3332723335971</v>
-      </c>
-    </row>
-    <row r="12" spans="10:11">
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="10:11">
-      <c r="J13" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" ref="B9:F9" si="0">AVERAGE(B3:B8)</f>
+        <v>46.2380589831368</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>32.2920901813526</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.000186779986470498</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>6.07558924314257</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>93.4519473813967</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="7">
+        <v>24.96</v>
+      </c>
+      <c r="J9" s="7">
+        <v>16.89</v>
+      </c>
+      <c r="K9" s="6">
+        <v>8.7e-5</v>
+      </c>
+      <c r="L9" s="7">
+        <v>3.07</v>
+      </c>
+      <c r="M9" s="7">
+        <v>50.82</v>
+      </c>
+    </row>
+    <row r="12" spans="11:13">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="11:13">
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="10:11">
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="10:11">
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="10:11">
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="11:11">
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="10:11">
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="10:11">
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="10:11">
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="11:13">
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="11:13">
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="11:13">
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="13:13">
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="11:13">
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="11:13">
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="11:13">
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="I1:M1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
